--- a/rodou.xlsx
+++ b/rodou.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -527,6 +527,23 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>O código rodou</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12:55:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rodou.xlsx
+++ b/rodou.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -544,6 +544,23 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>O código rodou</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12:57:07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
